--- a/similarities/split_global/harmonic_similarity_timestamps_117.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_117.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,698 +484,754 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>schubert-winterreise_171</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_14</t>
+          <t>schubert-winterreise_6</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['F#:min', 'C#:7', 'F#:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['B:min/F#', 'F#:7', 'B:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:05.440000', '0:01:06.820000')]</t>
+          <t>('0:00:03.820000', '0:00:08.620000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:10.090000', '0:00:20.170000')]</t>
+          <t>('0:01:19.420000', '0:01:26.020000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=65.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=3.82</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-14#t=10.09']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=79.42</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
+          <t>isophonics_258</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>schubert-winterreise_108</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'B']]</t>
+          <t>['E:min', 'A:min', 'E:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
+          <t>['A:min', 'D:min', 'A:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:15.216000', '0:00:34.866000')]</t>
+          <t>('0:00:00.506000', '0:00:08.175000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:59.220000', '0:01:11.120000')]</t>
+          <t>('0:00:08.220000', '0:00:16.760000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=15.216']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-258#t=0.506</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=59.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-108#t=8.22</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>schubert-winterreise_173</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_61</t>
+          <t>schubert-winterreise_69</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['G:min', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:00.820000', '0:00:06.760000')]</t>
+          <t>('0:00:02.580000', '0:00:07.080000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:24.387324', '0:00:27.452358')]</t>
+          <t>('0:00:42.360000', '0:00:50.360000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-64#t=0.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=2.58</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=24.387324']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-69#t=42.36</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>schubert-winterreise_199</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_81</t>
+          <t>isophonics_295</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['B', 'E/5', 'B']]</t>
+          <t>['C/3', 'F', 'C/3']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:02.480000', '0:01:04.920000')]</t>
+          <t>('0:01:02.200000', '0:01:04.400000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:55.629773', '0:01:07.541609')]</t>
+          <t>('0:01:16.585782', '0:01:18.064810')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=62.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-81#t=55.629773']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-295#t=76.585782</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_31</t>
+          <t>schubert-winterreise_179</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_23</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'G:7']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7']]</t>
+          <t>['D#:min', 'A#:maj', 'D#:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:06.040000', '0:00:15.040000')]</t>
+          <t>('0:00:00.980000', '0:00:06.140000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:11.100000', '0:00:18.020000')]</t>
+          <t>('0:00:00.360000', '0:00:05.060000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=6.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=0.98</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-23#t=11.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=0.36</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_90</t>
+          <t>schubert-winterreise_165</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_112</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'A', 'D/5']]</t>
+          <t>['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:02:34.760000', '0:02:40.980000')]</t>
+          <t>('0:00:09.700000', '0:00:16.420000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:00.421247', '0:00:06.206099')]</t>
+          <t>('0:01:47.400000', '0:02:06.860000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=154.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-165#t=9.7</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-112#t=0.421247']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=107.4</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>schubert-winterreise_68</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_297</t>
+          <t>isophonics_34</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:7', 'A#:maj'], ['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['D:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G', 'G:7', 'C'], ['G', 'D', 'G']]</t>
+          <t>['Bb', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:19.060000', '0:00:30.080000'), ('0:00:01.640000', '0:00:23.480000')]</t>
+          <t>('0:00:04.340000', '0:00:08.740000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:51.641107', '0:00:57.139232'), ('0:00:00.421247', '0:00:03.083177')]</t>
+          <t>('0:00:23.428956', '0:00:30.731632')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=19.06', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=1.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=4.34</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-297#t=51.641107', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-297#t=0.421247']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=23.428956</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>jaah_79</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>jaah_27</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>['F:7', 'Bb', 'Bb:7']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:7', 'C:maj', 'A:min']]</t>
+          <t>['A:7', 'D', 'D:7']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:30.920000', '0:01:40.480000')]</t>
+          <t>('0:00:09.770000', '0:00:15.240000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:38.900000', '0:00:47.160000')]</t>
+          <t>('0:00:09.820000', '0:00:17.090000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=90.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=9.77</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=38.9']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-27#t=9.82</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_47</t>
+          <t>schubert-winterreise_4</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>isophonics_162</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'E', 'A', 'D', 'A', 'D', 'A']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'A', 'D', 'G', 'D', 'G', 'D']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:14.751043', '0:00:29.507324')]</t>
+          <t>('0:01:06.520000', '0:01:10.140000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:43.934000', '0:00:53.359000')]</t>
+          <t>('0:00:28.450816', '0:00:40.095623')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-47#t=14.751043']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=43.934']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-162#t=28.450816</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>isophonics_0</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>schubert-winterreise_96</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min']]</t>
+          <t>['Db', 'Db:7', 'Gb']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['F:maj', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:13.120000', '0:00:19.960000')]</t>
+          <t>('0:00:22.947687', '0:00:32.374988')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:10.380000', '0:00:16.320000')]</t>
+          <t>('0:00:17.840000', '0:00:26.980000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=13.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=22.947687</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=10.38']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=17.84</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>isophonics_212</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>isophonics_193</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>['D', 'A', 'D']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>['Eb', 'Bb', 'Eb']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:39.800000', '0:00:45.400000')]</t>
+          <t>('0:00:09.408834', '0:00:16.560579')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:32.440000', '0:00:34.800000')]</t>
+          <t>('0:00:08.359000', '0:00:13.688000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=39.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=9.408834</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-149#t=32.44']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=8.359</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_80</t>
+          <t>schubert-winterreise_64</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_75</t>
+          <t>schubert-winterreise_175</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'B:dim7'], ['F:maj6', 'G:7', 'C:7']]</t>
+          <t>['D:min', 'A:7', 'D:min', 'D:min/A', 'A:7']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Gb:dim7'], ['Eb:maj6', 'F:7', 'Bb:7']]</t>
+          <t>['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:03.030000', '0:00:05.820000'), ('0:00:08.540000', '0:00:12.640000')]</t>
+          <t>('0:00:14.420000', '0:00:49.560000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:24.660000', '0:00:28.960000'), ('0:00:07.650000', '0:00:18.960000')]</t>
+          <t>('0:00:38.120000', '0:00:47.080000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=3.03', 'https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=8.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-64#t=14.42</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-75#t=24.66', 'https://soundcloud.com/jacopo-de-berardinis/jaah-75#t=7.65']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=38.12</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>schubert-winterreise_108</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['D#/G', 'C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min']]</t>
+          <t>['C:maj', 'A:min/E', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:08.540000', '0:00:14.080000')]</t>
+          <t>('0:01:07.160000', '0:01:12.400000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:13.980000', '0:00:21.500000')]</t>
+          <t>('0:00:30.760000', '0:00:37.720000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=8.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=67.16</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=13.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-108#t=30.76</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>isophonics_164</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_211</t>
+          <t>schubert-winterreise_144</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:40.380000', '0:00:42.280000')]</t>
+          <t>('0:00:48.001000', '0:00:54.307000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:02:04.300000', '0:02:09.240000')]</t>
+          <t>('0:00:33.140000', '0:00:37.240000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=40.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=48.001</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=124.3']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=33.14</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>isophonics_200</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_32</t>
+          <t>schubert-winterreise_202</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G', 'D:7', 'G']]</t>
+          <t>['F:maj/A', 'A#:maj', 'F:maj/C']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:04.300000', '0:01:05.720000')]</t>
+          <t>('0:00:02.408196', '0:00:13.878853')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:11.550000', '0:00:25.740000')]</t>
+          <t>('0:01:01.480000', '0:01:03.580000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=64.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-200#t=2.408196</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-32#t=11.55']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=61.48</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
